--- a/CarsFactory/Excel Reports/Cars Factory Rejection.xlsx
+++ b/CarsFactory/Excel Reports/Cars Factory Rejection.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Rejection" sheetId="1" r:id="R7df85aa0a69e4551"/>
+    <sheet name="Rejection" sheetId="1" r:id="R43f3c7c3893242c8"/>
   </sheets>
 </workbook>
 </file>

--- a/CarsFactory/Excel Reports/Cars Factory Rejection.xlsx
+++ b/CarsFactory/Excel Reports/Cars Factory Rejection.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Rejection" sheetId="1" r:id="R43f3c7c3893242c8"/>
+    <sheet name="Rejection" sheetId="1" r:id="Rc8368d4a136d407b"/>
   </sheets>
 </workbook>
 </file>

--- a/CarsFactory/Excel Reports/Cars Factory Rejection.xlsx
+++ b/CarsFactory/Excel Reports/Cars Factory Rejection.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Rejection" sheetId="1" r:id="Rc8368d4a136d407b"/>
+    <sheet name="Rejection" sheetId="1" r:id="R0ac2a27ab93d4bb0"/>
   </sheets>
 </workbook>
 </file>

--- a/CarsFactory/Excel Reports/Cars Factory Rejection.xlsx
+++ b/CarsFactory/Excel Reports/Cars Factory Rejection.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Rejection" sheetId="1" r:id="R0ac2a27ab93d4bb0"/>
+    <sheet name="Rejection" sheetId="1" r:id="Rac01e85c77724a23"/>
   </sheets>
 </workbook>
 </file>
